--- a/artfynd/A 1702-2023.xlsx
+++ b/artfynd/A 1702-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY15"/>
+  <dimension ref="A1:AY33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2258,6 +2258,2029 @@
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>112586174</v>
+      </c>
+      <c r="B16" t="n">
+        <v>85465</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>3767</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Violettfläckig spindling</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Cortinarius violaceomaculatus</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Brandrud</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Hajdskogen, NNO om Lojsta, Gtl</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>705216</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6360578</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Linde</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>2 ex. i barrmatta under gran.</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>Äldre kalktallskog med inslag av gran och enbuskar.</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Gillis Aronsson</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Gillis Aronsson, Helena Björnström, Brian Johnson</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>Kalkbarrianerna 2023, Gotland</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>112587079</v>
+      </c>
+      <c r="B17" t="n">
+        <v>85388</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>3674</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Anisspindling</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Cortinarius odorifer</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Britzelm.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Lojsta Hed, Gtl</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>705238</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6360555</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Linde</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Brian Johnson</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Brian Johnson</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>Kalkbarrianerna 2023, Gotland</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>112585295</v>
+      </c>
+      <c r="B18" t="n">
+        <v>85425</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>6003295</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Odörspindling</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Cortinarius russeoides</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>M.M.Moser</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Lojsta hed, Gtl</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>705227</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6360557</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Linde</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Helena Björnström</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Helena Björnström</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>Kalkbarrianerna 2023, Gotland</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>112586172</v>
+      </c>
+      <c r="B19" t="n">
+        <v>89006</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>4188</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Fransig jordstjärna</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Geastrum fimbriatum</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Fr.:Pers.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Hajdskogen, NNO om Lojsta, Gtl</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>705135</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6360561</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Linde</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>5 ex. i barrmatta under gran.</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>Äldre kalktallskog med inslag av gran och enbuskar.</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Gillis Aronsson</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Gillis Aronsson, Helena Björnström, Brian Johnson</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr">
+        <is>
+          <t>Kalkbarrianerna 2023, Gotland</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>112586176</v>
+      </c>
+      <c r="B20" t="n">
+        <v>85388</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>3674</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Anisspindling</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Cortinarius odorifer</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Britzelm.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Hajdskogen, NNO om Lojsta, Gtl</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>705241</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6360566</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Linde</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>1 ex.</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>Äldre kalktallskog med inslag av gran och enbuskar.</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Gillis Aronsson</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Gillis Aronsson, Helena Björnström, Brian Johnson</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr">
+        <is>
+          <t>Kalkbarrianerna 2023, Gotland</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>112585293</v>
+      </c>
+      <c r="B21" t="n">
+        <v>85425</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>6003295</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Odörspindling</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Cortinarius russeoides</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>M.M.Moser</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Lojsta hed, Gtl</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>705174</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6360565</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Linde</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Helena Björnström</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Helena Björnström</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>Kalkbarrianerna 2023, Gotland</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>112587053</v>
+      </c>
+      <c r="B22" t="n">
+        <v>85224</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>3762</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Olivspindling</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Cortinarius venetus</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Lojsta Hed, Gtl</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>705249</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6360564</v>
+      </c>
+      <c r="S22" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Linde</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Brian Johnson</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Brian Johnson</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>Kalkbarrianerna 2023, Gotland</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>112585302</v>
+      </c>
+      <c r="B23" t="n">
+        <v>85341</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>449</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Granrotspindling</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Cortinarius fraudulosus</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Britzelm.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Lojsta hed, Gtl</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>705130</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6360528</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Linde</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Helena Björnström</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Helena Björnström</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>Kalkbarrianerna 2023, Gotland</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>112585294</v>
+      </c>
+      <c r="B24" t="n">
+        <v>85425</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>6003295</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Odörspindling</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Cortinarius russeoides</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>M.M.Moser</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Lojsta hed, Gtl</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>705209</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6360545</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Linde</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Helena Björnström</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Helena Björnström</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr">
+        <is>
+          <t>Kalkbarrianerna 2023, Gotland</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>112587056</v>
+      </c>
+      <c r="B25" t="n">
+        <v>85425</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>6003295</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Odörspindling</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Cortinarius russeoides</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>M.M.Moser</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Lojsta Hed, Gtl</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>705031</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6360500</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Linde</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Brian Johnson</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Brian Johnson</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr">
+        <is>
+          <t>Kalkbarrianerna 2023, Gotland</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>112585306</v>
+      </c>
+      <c r="B26" t="n">
+        <v>85252</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>3712</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Blå slemspindling</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Cortinarius salor</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Fr.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Lojsta hed, Gtl</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>705133</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6360508</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Linde</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Helena Björnström</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Helena Björnström</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr">
+        <is>
+          <t>Kalkbarrianerna 2023, Gotland</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>112585310</v>
+      </c>
+      <c r="B27" t="n">
+        <v>85388</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>3674</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Anisspindling</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Cortinarius odorifer</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Britzelm.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Lojsta hed, Gtl</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>705218</v>
+      </c>
+      <c r="R27" t="n">
+        <v>6360574</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Linde</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Helena Björnström</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Helena Björnström</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr">
+        <is>
+          <t>Kalkbarrianerna 2023, Gotland</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>112585296</v>
+      </c>
+      <c r="B28" t="n">
+        <v>85425</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>6003295</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Odörspindling</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Cortinarius russeoides</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>M.M.Moser</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Lojsta hed, Gtl</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>705251</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6360563</v>
+      </c>
+      <c r="S28" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Linde</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Helena Björnström</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Helena Björnström</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr">
+        <is>
+          <t>Kalkbarrianerna 2023, Gotland</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>112587070</v>
+      </c>
+      <c r="B29" t="n">
+        <v>85341</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>449</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Granrotspindling</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Cortinarius fraudulosus</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Britzelm.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Lojsta Hed, Gtl</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>705226</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6360530</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Linde</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Brian Johnson</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Brian Johnson</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr">
+        <is>
+          <t>Kalkbarrianerna 2023, Gotland</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>112587052</v>
+      </c>
+      <c r="B30" t="n">
+        <v>89331</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>3215</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Rödgul trumpetsvamp</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Craterellus lutescens</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Lojsta Hed, Gtl</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>705177</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6360567</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Linde</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Brian Johnson</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Brian Johnson</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr">
+        <is>
+          <t>Kalkbarrianerna 2023, Gotland</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>112586163</v>
+      </c>
+      <c r="B31" t="n">
+        <v>105601</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>220079</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Jordtistel</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Cirsium acaule</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(L.) Scop.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Hajdskogen, NNO om Lojsta, Gtl</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>705115</v>
+      </c>
+      <c r="R31" t="n">
+        <v>6360429</v>
+      </c>
+      <c r="S31" t="n">
+        <v>10</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Linde</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Flera bladrosetter.</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>Äldre kalktallskog med inslag av gran och enbuskar.</t>
+        </is>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Gillis Aronsson</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Gillis Aronsson</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr">
+        <is>
+          <t>Kalkbarrianerna 2023, Gotland</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>112586175</v>
+      </c>
+      <c r="B32" t="n">
+        <v>85425</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>6003295</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Odörspindling</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Cortinarius russeoides</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>M.M.Moser</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Hajdskogen, NNO om Lojsta, Gtl</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>705225</v>
+      </c>
+      <c r="R32" t="n">
+        <v>6360566</v>
+      </c>
+      <c r="S32" t="n">
+        <v>10</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Linde</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>1 ex.</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>Äldre kalktallskog med inslag av gran och enbuskar.</t>
+        </is>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Gillis Aronsson</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Gillis Aronsson, Helena Björnström, Brian Johnson</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr">
+        <is>
+          <t>Kalkbarrianerna 2023, Gotland</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>112586173</v>
+      </c>
+      <c r="B33" t="n">
+        <v>90101</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>3884</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Hasselticka</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Dichomitus campestris</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Quél.) Domański &amp; Orlicz</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Hajdskogen, NNO om Lojsta, Gtl</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>705151</v>
+      </c>
+      <c r="R33" t="n">
+        <v>6360560</v>
+      </c>
+      <c r="S33" t="n">
+        <v>10</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Linde</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>1 ex. på död, stående hassel.</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>Äldre kalktallskog med inslag av gran och enbuskar.</t>
+        </is>
+      </c>
+      <c r="AL33" t="inlineStr">
+        <is>
+          <t>Hassel</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>Död, stående hassel. # Hassel</t>
+        </is>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Gillis Aronsson</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Gillis Aronsson, Helena Björnström, Brian Johnson</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr">
+        <is>
+          <t>Kalkbarrianerna 2023, Gotland</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
